--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>879459.1295617397</v>
+        <v>918711.6298015296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843294</v>
+        <v>2305207.638772118</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6157444.330383911</v>
+        <v>6667279.499960089</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.0856959456596</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>376.8459854561664</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -674,7 +676,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170453</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.2146311366284</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>376.8459854561664</v>
       </c>
       <c r="E5" t="n">
-        <v>373.704912211657</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -914,7 +916,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>50.30825486907127</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>86.27769679771792</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>100.3399916553733</v>
+        <v>286.7830525442098</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617046</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>103.8284742946039</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>220.2222996608612</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>293.6674158032092</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022799</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225787</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>422.699178398261</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>112.7542228657702</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2479,13 +2481,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>199.4201398804786</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>121.9901272476388</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135472</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>67.42894579208379</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>195.5695779437716</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>111.0877679785123</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170453</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437716</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>221.1716686147667</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>137.4748886338616</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4144,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765157</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2192.253746556978</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="C2" t="n">
-        <v>1754.111273740401</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="D2" t="n">
-        <v>1318.201488914845</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E2" t="n">
-        <v>884.4267440731403</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F2" t="n">
-        <v>456.5593144823481</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M2" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T2" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U2" t="n">
-        <v>2394.360510138452</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V2" t="n">
-        <v>2394.360510138452</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W2" t="n">
-        <v>2394.360510138452</v>
+        <v>3260.270129590188</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.360510138452</v>
+        <v>2841.127666169499</v>
       </c>
       <c r="Y2" t="n">
-        <v>2394.360510138452</v>
+        <v>2432.841542469152</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="N3" t="n">
-        <v>382.60715354234</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="O3" t="n">
-        <v>382.60715354234</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1133.802854344633</v>
+        <v>1757.959811693967</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>1585.398100177192</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>1419.520107378715</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>1249.762103629452</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>1073.055049591208</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>1135.045659441045</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>1409.80411401218</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>1828.013995780141</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>2287.497862961055</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>2729.756666118699</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>3149.42591534448</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>3496.932809314822</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S4" t="n">
-        <v>2512.162934933549</v>
+        <v>3505.884215477151</v>
       </c>
       <c r="T4" t="n">
-        <v>2266.283488512004</v>
+        <v>3260.004769055606</v>
       </c>
       <c r="U4" t="n">
-        <v>1987.850487765109</v>
+        <v>2981.571768308711</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.894979635539</v>
+        <v>2694.616260179142</v>
       </c>
       <c r="W4" t="n">
-        <v>1428.868575221831</v>
+        <v>2422.589855765434</v>
       </c>
       <c r="X4" t="n">
-        <v>1428.868575221831</v>
+        <v>2177.198101098846</v>
       </c>
       <c r="Y4" t="n">
-        <v>1325.62147306362</v>
+        <v>1949.778430412954</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.619818561768</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.619818561768</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="D5" t="n">
-        <v>1550.619818561768</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E5" t="n">
-        <v>1173.140109257064</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F5" t="n">
-        <v>745.2726796662719</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G5" t="n">
-        <v>343.8748482895357</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V5" t="n">
-        <v>2374.617736571424</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.762281982458</v>
+        <v>3260.270129590188</v>
       </c>
       <c r="X5" t="n">
-        <v>1550.619818561768</v>
+        <v>2841.127666169499</v>
       </c>
       <c r="Y5" t="n">
-        <v>1550.619818561768</v>
+        <v>2432.841542469152</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N6" t="n">
-        <v>245.8805072316101</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="O6" t="n">
-        <v>923.3460921744155</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P6" t="n">
-        <v>1600.811677117221</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>964.0448505953706</v>
+        <v>974.6149678201823</v>
       </c>
       <c r="C7" t="n">
-        <v>791.4831390785955</v>
+        <v>802.0532563034072</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6051462801182</v>
+        <v>636.1752635049299</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>466.4172597556672</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>289.7102057174234</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>124.118930743251</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.283488512004</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U7" t="n">
-        <v>1987.850487765109</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V7" t="n">
-        <v>1900.701299080545</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W7" t="n">
-        <v>1628.674894666837</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X7" t="n">
-        <v>1383.283140000249</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y7" t="n">
-        <v>1155.863469314358</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1790.439125807381</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.296652990805</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3868681652491</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E8" t="n">
-        <v>482.6121233235442</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M8" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N8" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553047</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>2739.567230486873</v>
       </c>
       <c r="W8" t="n">
-        <v>2737.234686637598</v>
+        <v>2334.711775897907</v>
       </c>
       <c r="X8" t="n">
-        <v>2318.092223216909</v>
+        <v>1915.569312477217</v>
       </c>
       <c r="Y8" t="n">
-        <v>2216.738696292289</v>
+        <v>1625.88946142246</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="O9" t="n">
-        <v>732.2102786755574</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>905.2407308096831</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C10" t="n">
-        <v>732.679019292908</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D10" t="n">
-        <v>566.8010264944307</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E10" t="n">
-        <v>397.0430227451681</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3359687069243</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2512.162934933549</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T10" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U10" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V10" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W10" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X10" t="n">
-        <v>1324.479020214562</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y10" t="n">
-        <v>1097.05934952867</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1078.651074442687</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C11" t="n">
-        <v>640.5086016261107</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D11" t="n">
-        <v>640.5086016261107</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E11" t="n">
-        <v>640.5086016261107</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F11" t="n">
-        <v>343.8748482895357</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M11" t="n">
-        <v>732.2102786755574</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N11" t="n">
-        <v>1409.675863618363</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W11" t="n">
-        <v>2332.379232048631</v>
+        <v>3260.270129590188</v>
       </c>
       <c r="X11" t="n">
-        <v>1913.236768627942</v>
+        <v>2841.127666169499</v>
       </c>
       <c r="Y11" t="n">
-        <v>1504.950644927595</v>
+        <v>2432.841542469152</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.057567691639</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528281</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674834</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001788</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.00656461795</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884133</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="L12" t="n">
-        <v>363.05328532595</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="M12" t="n">
-        <v>1040.518870268755</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.984455211561</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="O12" t="n">
-        <v>1717.984455211561</v>
+        <v>2909.004404784686</v>
       </c>
       <c r="P12" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627538</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.491502958139</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958108</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020107</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753301</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992181</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771402</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4798998523679</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C13" t="n">
-        <v>750.9181883355928</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D13" t="n">
-        <v>585.0401955371156</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2821917878528</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F13" t="n">
-        <v>238.575137749609</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G13" t="n">
-        <v>72.98386277543668</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.091856467112</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.136348337543</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.109943923834</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.718189257247</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.298518571355</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>883.1113921784387</v>
+        <v>1922.890098168081</v>
       </c>
       <c r="C14" t="n">
-        <v>883.1113921784387</v>
+        <v>1484.747625351505</v>
       </c>
       <c r="D14" t="n">
-        <v>883.1113921784387</v>
+        <v>1048.837840525949</v>
       </c>
       <c r="E14" t="n">
-        <v>883.1113921784387</v>
+        <v>615.0630956842442</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>187.195666093452</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M14" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N14" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.012383954615</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.395433888441</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="W14" t="n">
-        <v>1710.539979299475</v>
+        <v>3176.618255774025</v>
       </c>
       <c r="X14" t="n">
-        <v>1291.397515878785</v>
+        <v>2757.475792353336</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.1113921784387</v>
+        <v>2349.189668652989</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K15" t="n">
-        <v>363.05328532595</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L15" t="n">
-        <v>1040.518870268755</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M15" t="n">
-        <v>1717.984455211561</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N15" t="n">
-        <v>1717.984455211561</v>
+        <v>829.4236910780511</v>
       </c>
       <c r="O15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.2407308096831</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C16" t="n">
-        <v>732.679019292908</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D16" t="n">
-        <v>566.8010264944307</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E16" t="n">
-        <v>397.0430227451681</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.165134592867</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2407.285688171322</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.852687424428</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.897179294858</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.87077488115</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.479020214562</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.05934952867</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5518,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>388.1086717343214</v>
+        <v>211.240503094076</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5604,10 +5606,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5758,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5838,19 +5840,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.77365348828</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698831</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6078,10 +6080,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>915.9519976190925</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>743.3902861023174</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>577.5122933038401</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2517.485965445823</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y25" t="n">
-        <v>1107.77061633808</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,22 +6232,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>4683.629523620479</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P27" t="n">
-        <v>1116.062450089081</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6466,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6546,22 +6548,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>414.500552094942</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,13 +6703,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6780,13 +6782,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N33" t="n">
         <v>1765.500601749588</v>
@@ -6923,43 +6925,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7162,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7260,16 +7262,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>405.0384966383147</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.439125807381</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.296652990805</v>
+        <v>1568.399499167668</v>
       </c>
       <c r="D41" t="n">
-        <v>916.3868681652491</v>
+        <v>1132.489714342112</v>
       </c>
       <c r="E41" t="n">
-        <v>482.6121233235442</v>
+        <v>698.7149695004073</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>270.847539909615</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M41" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="N41" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>3260.270129590188</v>
       </c>
       <c r="X41" t="n">
-        <v>2625.024819992636</v>
+        <v>2841.127666169499</v>
       </c>
       <c r="Y41" t="n">
-        <v>2216.738696292289</v>
+        <v>2432.841542469152</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J42" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K42" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L42" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8805072316101</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N42" t="n">
-        <v>245.8805072316101</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O42" t="n">
-        <v>923.3460921744155</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P42" t="n">
-        <v>1600.811677117221</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>905.2407308096831</v>
+        <v>1757.959811693967</v>
       </c>
       <c r="C43" t="n">
-        <v>732.679019292908</v>
+        <v>1585.398100177192</v>
       </c>
       <c r="D43" t="n">
-        <v>566.8010264944307</v>
+        <v>1419.520107378715</v>
       </c>
       <c r="E43" t="n">
-        <v>397.0430227451681</v>
+        <v>1249.762103629452</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>1073.055049591208</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>1135.045659441045</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>1409.80411401218</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>1828.013995780141</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>2287.497862961055</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>2729.756666118699</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>3149.42591534448</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>3496.932809314822</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S43" t="n">
-        <v>2653.165134592867</v>
+        <v>3505.884215477151</v>
       </c>
       <c r="T43" t="n">
-        <v>2407.285688171322</v>
+        <v>3260.004769055606</v>
       </c>
       <c r="U43" t="n">
-        <v>2128.852687424428</v>
+        <v>2981.571768308711</v>
       </c>
       <c r="V43" t="n">
-        <v>1841.897179294858</v>
+        <v>2694.616260179142</v>
       </c>
       <c r="W43" t="n">
-        <v>1569.87077488115</v>
+        <v>2422.589855765434</v>
       </c>
       <c r="X43" t="n">
-        <v>1324.479020214562</v>
+        <v>2177.198101098846</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.05934952867</v>
+        <v>1949.778430412954</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1183.415152482848</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="C44" t="n">
-        <v>745.2726796662719</v>
+        <v>1568.399499167668</v>
       </c>
       <c r="D44" t="n">
-        <v>745.2726796662719</v>
+        <v>1132.489714342112</v>
       </c>
       <c r="E44" t="n">
-        <v>745.2726796662719</v>
+        <v>698.7149695004073</v>
       </c>
       <c r="F44" t="n">
-        <v>745.2726796662719</v>
+        <v>270.847539909615</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M44" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N44" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P44" t="n">
-        <v>2087.141448561168</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q44" t="n">
-        <v>2633.640234519763</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S44" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T44" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U44" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V44" t="n">
-        <v>1811.676332945317</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W44" t="n">
-        <v>1406.82087835635</v>
+        <v>3260.270129590188</v>
       </c>
       <c r="X44" t="n">
-        <v>1406.82087835635</v>
+        <v>2841.127666169499</v>
       </c>
       <c r="Y44" t="n">
-        <v>1183.415152482848</v>
+        <v>2432.841542469152</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M45" t="n">
-        <v>382.60715354234</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N45" t="n">
-        <v>382.60715354234</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="O45" t="n">
-        <v>382.60715354234</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>817.1936259967641</v>
+        <v>1012.458497985839</v>
       </c>
       <c r="C46" t="n">
-        <v>644.6319144799891</v>
+        <v>839.8967864690638</v>
       </c>
       <c r="D46" t="n">
-        <v>478.7539216815117</v>
+        <v>674.0187936705865</v>
       </c>
       <c r="E46" t="n">
-        <v>308.995917932249</v>
+        <v>504.2607899213239</v>
       </c>
       <c r="F46" t="n">
-        <v>308.995917932249</v>
+        <v>327.5537358830801</v>
       </c>
       <c r="G46" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2514.503455347478</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2236.070454600583</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>1949.114946471014</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.868575221831</v>
+        <v>1677.088542057305</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.476820555243</v>
+        <v>1431.696787390718</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0571498693516</v>
+        <v>1204.277116704826</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8064,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N3" t="n">
-        <v>331.1742018278667</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P6" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O8" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P9" t="n">
-        <v>331.1742018278667</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P11" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8772,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>763.7587670651192</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N14" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,19 +9008,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9164,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>288.7351832965068</v>
+        <v>110.0804674982791</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9656,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>280.9431591680332</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10194,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,16 +10351,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,16 +10430,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10908,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11066,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>166.7395356953541</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11303,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>104.640860725086</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P45" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>221.9508788343991</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>54.70470152113347</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22717,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>122.9308428424044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>54.70470152113347</v>
       </c>
       <c r="E5" t="n">
-        <v>55.73208518163074</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22948,7 +22950,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>88.19489769745795</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22999,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>197.8082562505559</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>303.8632708079698</v>
+        <v>117.4202099191333</v>
       </c>
     </row>
     <row r="9">
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23230,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>201.8142751191974</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>129.9213394916751</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142713</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8895768966232822</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>284.6296301971986</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>44.0005120768507</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.155346731394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>201.8142751191971</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25688,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>303.8632708079701</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>201.8142751191971</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.0315938485764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.42554389793563</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>420639.1843009981</v>
+        <v>508421.5622059808</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>420639.1843009981</v>
+        <v>508421.5622059808</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>420639.1843009982</v>
+        <v>508421.5622059807</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420639.1843009982</v>
+        <v>508421.5622059808</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>420639.1843009982</v>
+        <v>508421.5622059808</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645400.5405682566</v>
+        <v>645400.5405682565</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645400.5405682566</v>
+        <v>645400.5405682565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>420639.1843009981</v>
+        <v>508421.5622059808</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420639.1843009981</v>
+        <v>508421.5622059808</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="C2" t="n">
-        <v>180273.9361289993</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="D2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="E2" t="n">
-        <v>180273.9361289991</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="F2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311346</v>
       </c>
       <c r="G2" t="n">
         <v>276600.23167211</v>
@@ -26344,16 +26346,16 @@
         <v>276600.23167211</v>
       </c>
       <c r="M2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721101</v>
       </c>
       <c r="N2" t="n">
         <v>276600.23167211</v>
       </c>
       <c r="O2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="P2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527206</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="C4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="D4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="F4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="G4" t="n">
+        <v>806.3323907826024</v>
+      </c>
+      <c r="H4" t="n">
         <v>806.3323907826023</v>
-      </c>
-      <c r="H4" t="n">
-        <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26451,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="O4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="P4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124812.7324439804</v>
+        <v>-179144.7213791895</v>
       </c>
       <c r="C6" t="n">
-        <v>104514.8425285326</v>
+        <v>127922.2489075282</v>
       </c>
       <c r="D6" t="n">
-        <v>104514.8425285326</v>
+        <v>127922.2489075282</v>
       </c>
       <c r="E6" t="n">
-        <v>138142.4425285325</v>
+        <v>161549.8489075282</v>
       </c>
       <c r="F6" t="n">
-        <v>138142.4425285326</v>
+        <v>161549.8489075282</v>
       </c>
       <c r="G6" t="n">
-        <v>35282.37287709347</v>
+        <v>98862.61704026285</v>
       </c>
       <c r="H6" t="n">
         <v>198075.6606755349</v>
@@ -26543,7 +26545,7 @@
         <v>198075.6606755349</v>
       </c>
       <c r="J6" t="n">
-        <v>19030.402587883</v>
+        <v>-41663.86891120775</v>
       </c>
       <c r="K6" t="n">
         <v>198075.6606755349</v>
@@ -26552,16 +26554,16 @@
         <v>198075.6606755349</v>
       </c>
       <c r="M6" t="n">
-        <v>198075.6606755349</v>
+        <v>198075.660675535</v>
       </c>
       <c r="N6" t="n">
         <v>198075.6606755349</v>
       </c>
       <c r="O6" t="n">
-        <v>138142.4425285326</v>
+        <v>161549.8489075282</v>
       </c>
       <c r="P6" t="n">
-        <v>138142.4425285326</v>
+        <v>161549.8489075282</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399567</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399567</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34784,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N3" t="n">
-        <v>331.1742018278667</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P6" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O8" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P9" t="n">
-        <v>331.1742018278667</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P11" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>763.7587670651192</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N14" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>288.7351832965068</v>
+        <v>110.0804674982791</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35972,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36376,10 +36378,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36607,7 +36609,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>280.9431591680332</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37071,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>166.7395356953541</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>104.640860725086</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P45" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918711.6298015296</v>
+        <v>917090.4713102463</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772118</v>
+        <v>2305207.638772117</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6667279.499960089</v>
+        <v>6667279.49996009</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>376.8459854561664</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>195.5695779437723</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>24.34318456170453</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068454</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>376.8459854561664</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>195.4131368304935</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>50.30825486907127</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>249.3836147387399</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1153,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>286.7830525442098</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.3431845617046</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.2222996608612</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>160.330957172698</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022799</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1612,19 +1612,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>27.6408794076172</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>112.7542228657702</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>199.4201398804786</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>229.3237903789724</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>195.5695779437716</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170453</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>195.5695779437716</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>173.7040795765157</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2006.541971984244</v>
+        <v>1808.996943758212</v>
       </c>
       <c r="C2" t="n">
-        <v>2006.541971984244</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D2" t="n">
-        <v>1625.88946142246</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E2" t="n">
-        <v>1192.114716580755</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F2" t="n">
-        <v>764.247286989963</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G2" t="n">
-        <v>362.8494556132268</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H2" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M2" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N2" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V2" t="n">
-        <v>3665.125584179154</v>
+        <v>3467.580555953123</v>
       </c>
       <c r="W2" t="n">
-        <v>3260.270129590188</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.127666169499</v>
+        <v>2643.582637943467</v>
       </c>
       <c r="Y2" t="n">
-        <v>2432.841542469152</v>
+        <v>2235.29651424312</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M3" t="n">
-        <v>980.4210937679237</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N3" t="n">
-        <v>1736.542273162392</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O3" t="n">
-        <v>1736.542273162392</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P3" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
         <v>1736.542273162392</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1757.959811693967</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C4" t="n">
-        <v>1585.398100177192</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D4" t="n">
-        <v>1419.520107378715</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E4" t="n">
-        <v>1249.762103629452</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F4" t="n">
-        <v>1073.055049591208</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G4" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>1135.045659441045</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>1409.80411401218</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.013995780141</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>2287.497862961055</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>2729.756666118699</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>3149.42591534448</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>3496.932809314822</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>3505.884215477151</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T4" t="n">
-        <v>3260.004769055606</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U4" t="n">
-        <v>2981.571768308711</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V4" t="n">
-        <v>2694.616260179142</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W4" t="n">
-        <v>2422.589855765434</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X4" t="n">
-        <v>2177.198101098846</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y4" t="n">
-        <v>1949.778430412954</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2006.541971984244</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C5" t="n">
-        <v>2006.541971984244</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D5" t="n">
         <v>1625.88946142246</v>
@@ -4561,58 +4561,58 @@
         <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M5" t="n">
-        <v>306.9256944654251</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N5" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179154</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V5" t="n">
-        <v>3665.125584179154</v>
+        <v>2904.797173653559</v>
       </c>
       <c r="W5" t="n">
-        <v>3260.270129590188</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.127666169499</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="Y5" t="n">
-        <v>2432.841542469152</v>
+        <v>2499.941719064592</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O6" t="n">
         <v>258.9073899567783</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>974.6149678201823</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>802.0532563034072</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>636.1752635049299</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
-        <v>466.4172597556672</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>289.7102057174234</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>124.118930743251</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
         <v>159.882196848273</v>
@@ -4752,25 +4752,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1625.88946142246</v>
+        <v>1443.600568358137</v>
       </c>
       <c r="C8" t="n">
-        <v>1625.88946142246</v>
+        <v>1443.600568358137</v>
       </c>
       <c r="D8" t="n">
-        <v>1625.88946142246</v>
+        <v>1443.600568358137</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.114716580755</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F8" t="n">
-        <v>764.247286989963</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G8" t="n">
-        <v>362.8494556132268</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>73.30251168358309</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M8" t="n">
-        <v>306.9256944654251</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N8" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3361.40648323603</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U8" t="n">
-        <v>3102.184180553047</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V8" t="n">
-        <v>2739.567230486873</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="W8" t="n">
-        <v>2334.711775897907</v>
+        <v>2697.328725964081</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.569312477217</v>
+        <v>2278.186262543392</v>
       </c>
       <c r="Y8" t="n">
-        <v>1625.88946142246</v>
+        <v>1869.900138843045</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M9" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N9" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O9" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P9" t="n">
         <v>1078.630556435977</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>782.7963491011951</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C10" t="n">
-        <v>610.2346375844201</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D10" t="n">
-        <v>444.3566447859428</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E10" t="n">
-        <v>274.59864103668</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>97.89158699843622</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
         <v>159.882196848273</v>
@@ -4989,25 +4989,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2210.394775134949</v>
+        <v>1627.607712033451</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.252302318372</v>
+        <v>1627.607712033451</v>
       </c>
       <c r="D11" t="n">
-        <v>1336.342517492816</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="E11" t="n">
-        <v>902.5677726511115</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F11" t="n">
-        <v>474.7003430603192</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G11" t="n">
-        <v>73.30251168358309</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M11" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N11" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.125584179154</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V11" t="n">
-        <v>3665.125584179154</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W11" t="n">
-        <v>3260.270129590188</v>
+        <v>2881.335869639394</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.127666169499</v>
+        <v>2462.193406218705</v>
       </c>
       <c r="Y11" t="n">
-        <v>2432.841542469152</v>
+        <v>2053.907282518358</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2508.057567691639</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>2401.601106528281</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>2306.510817674834</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>2212.390403001788</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>2129.00656461795</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>2043.621474884133</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>2001.885822700346</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>2001.885822700346</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>2001.885822700346</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>2001.885822700346</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>2001.885822700346</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>2001.885822700346</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.885822700346</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>2909.004404784686</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>3665.125584179154</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>3665.125584179154</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>3665.125584179154</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>3601.670146627538</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>3471.491502958139</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>3295.154955958108</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>3096.037438020107</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>2910.714683753301</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>2755.847247992181</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>2629.361468771402</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.378527806567</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>588.816816289792</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>422.9388234913147</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>253.1808197420519</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>76.47376570380814</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
         <v>159.882196848273</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2509.302931589751</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2263.423485168206</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>1984.990484421312</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1698.034976291742</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.008571878034</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1180.616817211446</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>953.1971465255542</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1922.890098168081</v>
+        <v>1663.667795485099</v>
       </c>
       <c r="C14" t="n">
-        <v>1484.747625351505</v>
+        <v>1225.525322668522</v>
       </c>
       <c r="D14" t="n">
-        <v>1048.837840525949</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="E14" t="n">
-        <v>615.0630956842442</v>
+        <v>763.830497617103</v>
       </c>
       <c r="F14" t="n">
-        <v>187.195666093452</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G14" t="n">
-        <v>73.30251168358309</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M14" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N14" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P14" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q14" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T14" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U14" t="n">
-        <v>3581.473710362991</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="V14" t="n">
-        <v>3581.473710362991</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="W14" t="n">
-        <v>3176.618255774025</v>
+        <v>2917.395953091042</v>
       </c>
       <c r="X14" t="n">
-        <v>2757.475792353336</v>
+        <v>2498.253489670353</v>
       </c>
       <c r="Y14" t="n">
-        <v>2349.189668652989</v>
+        <v>2089.967365970007</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>829.4236910780511</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
         <v>1736.542273162392</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
         <v>415.6008406959992</v>
@@ -5427,13 +5427,13 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
         <v>159.882196848273</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,49 +5518,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>211.240503094076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1286.300469346935</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.348304557486</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,46 +5758,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2517.485965445823</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.052964698928</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4683.629523620479</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
         <v>1463.16863798718</v>
@@ -6539,28 +6539,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.563362934248</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,25 +6943,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.773653488281</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7359,7 +7359,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
         <v>2454.80183470935</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2006.541971984244</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.399499167668</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>1132.489714342112</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E41" t="n">
-        <v>698.7149695004073</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F41" t="n">
-        <v>270.847539909615</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M41" t="n">
-        <v>980.4210937679237</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N41" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P41" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>3260.270129590188</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>2841.127666169499</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>2432.841542469152</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
         <v>1078.630556435977</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1757.959811693967</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>1585.398100177192</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>1419.520107378715</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>1249.762103629452</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>1073.055049591208</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>1135.045659441045</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>1409.80411401218</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.013995780141</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>2287.497862961055</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>2729.756666118699</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>3149.42591534448</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>3496.932809314822</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>3505.884215477151</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>3260.004769055606</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2981.571768308711</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>2694.616260179142</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>2422.589855765434</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>2177.198101098846</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1949.778430412954</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2006.541971984244</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1568.399499167668</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>1132.489714342112</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>698.7149695004073</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>270.847539909615</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
-        <v>306.9256944654251</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N44" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P44" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q44" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3260.270129590188</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>2841.127666169499</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2432.841542469152</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>980.4210937679237</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
         <v>1736.542273162392</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1012.458497985839</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>839.8967864690638</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>674.0187936705865</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>504.2607899213239</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>327.5537358830801</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
         <v>159.882196848273</v>
@@ -7833,25 +7833,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2514.503455347478</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2236.070454600583</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1949.114946471014</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.088542057305</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1431.696787390718</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.277116704826</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8224,13 +8224,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N5" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8458,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>763.7587670651192</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9178,7 +9178,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>903.3699580700795</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.70470152113347</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,7 +22606,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>163.4212026217394</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>54.70470152113347</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>163.5776437350183</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>88.19489769745795</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23029,7 +23029,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>180.0533826545479</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>117.4202099191333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.8142751191974</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23314,13 +23314,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>240.475942870379</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>403.9098075696827</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>284.6296301971986</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23551,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>44.0005120768507</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>202.2268965983275</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8142751191971</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>201.8142751191971</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>69.71657238081363</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>508421.5622059807</v>
+        <v>508421.5622059809</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>508421.5622059808</v>
+        <v>508421.5622059809</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>508421.5622059808</v>
+        <v>508421.5622059809</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645400.5405682565</v>
+        <v>645400.5405682566</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645400.5405682565</v>
+        <v>645400.5405682566</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645400.5405682566</v>
+        <v>645400.5405682565</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645400.5405682565</v>
+        <v>645400.5405682566</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>508421.5622059808</v>
+        <v>508421.5622059809</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>508421.5622059808</v>
+        <v>508421.5622059809</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>217894.9552311347</v>
       </c>
       <c r="F2" t="n">
-        <v>217894.9552311346</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="G2" t="n">
         <v>276600.23167211</v>
@@ -26346,7 +26346,7 @@
         <v>276600.23167211</v>
       </c>
       <c r="M2" t="n">
-        <v>276600.2316721101</v>
+        <v>276600.23167211</v>
       </c>
       <c r="N2" t="n">
         <v>276600.23167211</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527206</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>635.1974440833579</v>
       </c>
       <c r="C4" t="n">
-        <v>635.1974440833578</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="D4" t="n">
         <v>635.1974440833578</v>
@@ -26441,7 +26441,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26453,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
         <v>635.1974440833578</v>
       </c>
       <c r="P4" t="n">
-        <v>635.1974440833579</v>
+        <v>635.1974440833578</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179144.7213791895</v>
+        <v>-179447.4946540055</v>
       </c>
       <c r="C6" t="n">
-        <v>127922.2489075282</v>
+        <v>127619.4756327123</v>
       </c>
       <c r="D6" t="n">
-        <v>127922.2489075282</v>
+        <v>127619.4756327124</v>
       </c>
       <c r="E6" t="n">
-        <v>161549.8489075282</v>
+        <v>161247.0756327123</v>
       </c>
       <c r="F6" t="n">
-        <v>161549.8489075282</v>
+        <v>161247.0756327123</v>
       </c>
       <c r="G6" t="n">
-        <v>98862.61704026285</v>
+        <v>98839.3927008803</v>
       </c>
       <c r="H6" t="n">
-        <v>198075.6606755349</v>
+        <v>198052.4363361523</v>
       </c>
       <c r="I6" t="n">
-        <v>198075.6606755349</v>
+        <v>198052.4363361523</v>
       </c>
       <c r="J6" t="n">
-        <v>-41663.86891120775</v>
+        <v>-41687.09325059051</v>
       </c>
       <c r="K6" t="n">
-        <v>198075.6606755349</v>
+        <v>198052.4363361522</v>
       </c>
       <c r="L6" t="n">
-        <v>198075.6606755349</v>
+        <v>198052.4363361523</v>
       </c>
       <c r="M6" t="n">
-        <v>198075.660675535</v>
+        <v>198052.4363361523</v>
       </c>
       <c r="N6" t="n">
-        <v>198075.6606755349</v>
+        <v>198052.4363361522</v>
       </c>
       <c r="O6" t="n">
-        <v>161549.8489075282</v>
+        <v>161247.0756327124</v>
       </c>
       <c r="P6" t="n">
-        <v>161549.8489075282</v>
+        <v>161247.0756327123</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399567</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399567</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458551</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34944,13 +34944,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N5" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458551</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35418,13 +35418,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>763.7587670651192</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458551</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35886,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35898,7 +35898,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>903.3699580700795</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38025,13 +38025,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458551</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
